--- a/data/results/coint_test_log_diff_rolvol.xlsx
+++ b/data/results/coint_test_log_diff_rolvol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>Cointegration Score</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>17-02-1999</t>
+    <t>05-01-1999</t>
   </si>
   <si>
     <t>01-10-2025</t>
@@ -95,33 +95,33 @@
   </si>
   <si>
     <t xml:space="preserve">             EUR/USD   WTI Oil
-1999-02-17  0.004920  0.026891
-1999-02-18  0.004896  0.027469
-1999-02-19  0.005087  0.024727
-1999-02-22  0.005017  0.024806
-1999-02-23  0.004786  0.025894
+1999-01-05 -0.004412 -0.031074
+1999-01-06 -0.010600  0.064331
+1999-01-07  0.003089  0.011615
+1999-01-08 -0.010161  0.005374
+1999-01-11 -0.001733  0.027937
 ...              ...       ...
-2025-09-25  0.004293  0.015448
-2025-09-26  0.004153  0.015245
-2025-09-29  0.004073  0.016152
-2025-09-30  0.004017  0.016317
-2025-10-01  0.004020  0.016086
-[6609 rows x 2 columns]</t>
+2025-09-25 -0.005894  0.001681
+2025-09-26  0.001626  0.014999
+2025-09-29  0.003245 -0.034109
+2025-09-30  0.000426 -0.017263
+2025-10-01 -0.001023 -0.009224
+[6638 rows x 2 columns]</t>
   </si>
   <si>
     <t xml:space="preserve">             EUR/USD   Nat Gas
-1999-02-17  0.004920  0.024763
-1999-02-18  0.004896  0.024579
-1999-02-19  0.005087  0.024580
-1999-02-22  0.005017  0.021726
-1999-02-23  0.004786  0.021781
+1999-01-05 -0.004412 -0.024098
+1999-01-06 -0.010600 -0.004890
+1999-01-07  0.003089 -0.065847
+1999-01-08 -0.010161 -0.005249
+1999-01-11 -0.001733 -0.037538
 ...              ...       ...
-2025-09-25  0.004293  0.041196
-2025-09-26  0.004153  0.039990
-2025-09-29  0.004073  0.037923
-2025-09-30  0.004017  0.039622
-2025-10-01  0.004020  0.039654
-[6609 rows x 2 columns]</t>
+2025-09-25 -0.005894  0.034133
+2025-09-26  0.001626 -0.027213
+2025-09-29  0.003245  0.010292
+2025-09-30  0.000426  0.062831
+2025-10-01 -0.001023  0.037740
+[6638 rows x 2 columns]</t>
   </si>
   <si>
     <t>EUR/USD and WTI Oil</t>
@@ -130,16 +130,22 @@
     <t>EUR/USD and Nat Gas</t>
   </si>
   <si>
-    <t>14-10-2025 15:47:33</t>
-  </si>
-  <si>
-    <t>14-10-2025 15:47:34</t>
-  </si>
-  <si>
-    <t>14-10-2025 15:47:35</t>
-  </si>
-  <si>
-    <t>14-10-2025 15:47:36</t>
+    <t>03-11-2025 18:24:11</t>
+  </si>
+  <si>
+    <t>03-11-2025 18:24:12</t>
+  </si>
+  <si>
+    <t>03-11-2025 18:24:13</t>
+  </si>
+  <si>
+    <t>03-11-2025 18:24:14</t>
+  </si>
+  <si>
+    <t>03-11-2025 18:24:15</t>
+  </si>
+  <si>
+    <t>03-11-2025 18:24:16</t>
   </si>
   <si>
     <t>Cointegrated</t>
@@ -558,10 +564,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>-4.29330033711135</v>
+        <v>-80.62689639507118</v>
       </c>
       <c r="B2">
-        <v>0.002622686433120196</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -570,7 +576,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>6609</v>
+        <v>6638</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -600,15 +606,15 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>-4.804690780203214</v>
+        <v>-80.62702213331164</v>
       </c>
       <c r="B3">
-        <v>0.001851880198290003</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -617,7 +623,7 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>6609</v>
+        <v>6638</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -638,7 +644,7 @@
         <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>0.05</v>
@@ -647,15 +653,15 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>-4.829959964280204</v>
+        <v>-80.62766103650483</v>
       </c>
       <c r="B4">
-        <v>0.006262151393372943</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -664,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>6609</v>
+        <v>6638</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -694,15 +700,15 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
-        <v>-5.723965026482631</v>
+        <v>-80.62671551855082</v>
       </c>
       <c r="B5">
-        <v>5.824500654057833E-07</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -711,7 +717,7 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>6609</v>
+        <v>6638</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -732,7 +738,7 @@
         <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5">
         <v>0.05</v>
@@ -741,15 +747,15 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <v>-4.001429363400471</v>
+        <v>-80.66426944042796</v>
       </c>
       <c r="B6">
-        <v>0.007147679978767986</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -758,7 +764,7 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>6609</v>
+        <v>6638</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -779,7 +785,7 @@
         <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>0.05</v>
@@ -788,15 +794,15 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
-        <v>-4.347622565824939</v>
+        <v>-80.66427429985883</v>
       </c>
       <c r="B7">
-        <v>0.009385050668719608</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -805,7 +811,7 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>6609</v>
+        <v>6638</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -826,7 +832,7 @@
         <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>0.05</v>
@@ -835,15 +841,15 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
-        <v>-4.341466516029666</v>
+        <v>-80.66456906891608</v>
       </c>
       <c r="B8">
-        <v>0.02973820656235407</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -852,7 +858,7 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <v>6609</v>
+        <v>6638</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -873,7 +879,7 @@
         <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>0.05</v>
@@ -882,15 +888,15 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
-        <v>-4.245621496384776</v>
+        <v>-80.66427014539735</v>
       </c>
       <c r="B9">
-        <v>0.0004286985622406276</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -899,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>6609</v>
+        <v>6638</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -920,7 +926,7 @@
         <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>0.05</v>
@@ -929,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
